--- a/BookMyShow - DataModelling.xlsx
+++ b/BookMyShow - DataModelling.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_Git\BookMyShow_SQL-queries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31BD737-4EFB-4169-B8B5-027C0D889A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A10100-21E9-4A28-8E19-F973F53F0DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8EDF7451-4F92-4478-9F57-1488202CDCCC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="100">
   <si>
     <t>Movie_ID(Primary Key)</t>
   </si>
@@ -280,6 +280,51 @@
   </si>
   <si>
     <t>INNER JOIN  Movie_TheatreShow MTS ON Movie_Show.Movie_ID = Theater.Theater_ID</t>
+  </si>
+  <si>
+    <t>Theater_name</t>
+  </si>
+  <si>
+    <t>Theater_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movie_name</t>
+  </si>
+  <si>
+    <t>Total_time</t>
+  </si>
+  <si>
+    <t>Movie_ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie table </t>
+  </si>
+  <si>
+    <t>Theater table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show Table </t>
+  </si>
+  <si>
+    <t>Screen Table</t>
+  </si>
+  <si>
+    <t>P1, P2 AssignmentQuery</t>
+  </si>
+  <si>
+    <t>Output:</t>
+  </si>
+  <si>
+    <t>MovieName</t>
+  </si>
+  <si>
+    <t>TheatreName</t>
+  </si>
+  <si>
+    <t>ShowDate</t>
+  </si>
+  <si>
+    <t>ShowTime</t>
   </si>
 </sst>
 </file>
@@ -301,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,8 +395,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -383,11 +434,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -407,10 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -418,7 +516,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,6 +529,21 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,15 +916,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D499CCE-59C8-434F-9989-F194975B5E99}">
-  <dimension ref="A1:O258"/>
+  <dimension ref="A1:O318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="I212" sqref="I212"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="J313" sqref="J313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" style="8" customWidth="1"/>
     <col min="2" max="2" width="15.08984375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="15.7265625" customWidth="1"/>
@@ -827,7 +940,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -932,18 +1045,18 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -992,18 +1105,18 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1052,15 +1165,15 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1097,7 +1210,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1120,19 +1233,19 @@
       <c r="H38" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="M38" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1277,10 +1390,10 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="8"/>
+      <c r="D51" s="7"/>
       <c r="E51" t="s">
         <v>50</v>
       </c>
@@ -1304,19 +1417,19 @@
       <c r="H53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="K53" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L53" s="7" t="s">
+      <c r="L53" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="M53" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1846,7 +1959,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E71" t="s">
@@ -1864,31 +1977,31 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K75" s="7" t="s">
+      <c r="K75" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L75" s="7" t="s">
+      <c r="L75" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M75" s="7" t="s">
+      <c r="M75" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="N75" s="7" t="s">
+      <c r="N75" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2252,13 +2365,13 @@
       <c r="G93" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H93" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I93" s="7" t="s">
+      <c r="I93" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="J93" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2384,22 +2497,22 @@
       </c>
     </row>
     <row r="101" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G101" s="7" t="s">
+      <c r="G101" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2489,19 +2602,19 @@
       </c>
     </row>
     <row r="109" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2574,7 +2687,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D120" t="s">
@@ -2590,7 +2703,7 @@
       <c r="B123" t="s">
         <v>60</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2613,7 +2726,7 @@
       <c r="G124" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H124" s="7" t="s">
+      <c r="H124" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2713,21 +2826,21 @@
       <c r="B131" t="s">
         <v>61</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E132" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2796,16 +2909,16 @@
       </c>
     </row>
     <row r="141" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E141" s="7" t="s">
+      <c r="E141" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3025,10 +3138,10 @@
       </c>
     </row>
     <row r="160" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3065,7 +3178,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A168" s="9" t="s">
+      <c r="A168" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3093,7 +3206,7 @@
       <c r="G170" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I170" s="15"/>
+      <c r="I170" s="14"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B171" s="2">
@@ -3181,16 +3294,16 @@
       </c>
     </row>
     <row r="178" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C178" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D178" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E178" s="7" t="s">
+      <c r="E178" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3251,18 +3364,18 @@
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="187" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="C187" s="11" t="s">
+      <c r="C187" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E187" s="7" t="s">
+      <c r="E187" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3314,22 +3427,22 @@
       <c r="B193" t="s">
         <v>81</v>
       </c>
-      <c r="F193" s="12"/>
+      <c r="F193" s="11"/>
     </row>
     <row r="194" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B194" s="7" t="s">
+      <c r="B194" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="C194" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D194" s="7" t="s">
+      <c r="D194" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E194" s="11" t="s">
+      <c r="E194" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F194" s="12"/>
+      <c r="F194" s="11"/>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B195" s="2">
@@ -3344,7 +3457,7 @@
       <c r="E195" s="2">
         <v>10</v>
       </c>
-      <c r="F195" s="12"/>
+      <c r="F195" s="11"/>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B196" s="2">
@@ -3359,7 +3472,7 @@
       <c r="E196" s="2">
         <v>10</v>
       </c>
-      <c r="F196" s="12"/>
+      <c r="F196" s="11"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B197" s="2">
@@ -3374,7 +3487,7 @@
       <c r="E197" s="2">
         <v>10</v>
       </c>
-      <c r="F197" s="12"/>
+      <c r="F197" s="11"/>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B198" s="2">
@@ -3389,7 +3502,7 @@
       <c r="E198" s="2">
         <v>20</v>
       </c>
-      <c r="F198" s="12"/>
+      <c r="F198" s="11"/>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B199" s="2">
@@ -3404,7 +3517,7 @@
       <c r="E199" s="2">
         <v>20</v>
       </c>
-      <c r="F199" s="12"/>
+      <c r="F199" s="11"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B200" s="2">
@@ -3552,13 +3665,13 @@
       </c>
     </row>
     <row r="213" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B213" s="7" t="s">
+      <c r="B213" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C213" s="7" t="s">
+      <c r="C213" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D213" s="7" t="s">
+      <c r="D213" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3612,16 +3725,16 @@
       </c>
     </row>
     <row r="223" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B223" s="7" t="s">
+      <c r="B223" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C223" s="7" t="s">
+      <c r="C223" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D223" s="7" t="s">
+      <c r="D223" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E223" s="11" t="s">
+      <c r="E223" s="10" t="s">
         <v>80</v>
       </c>
       <c r="F223" s="5" t="s">
@@ -3656,22 +3769,22 @@
       <c r="E224" s="2">
         <v>10</v>
       </c>
-      <c r="F224" s="13">
+      <c r="F224" s="12">
         <v>1234</v>
       </c>
-      <c r="G224" s="13" t="s">
+      <c r="G224" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H224" s="14">
+      <c r="H224" s="13">
         <v>6.25E-2</v>
       </c>
-      <c r="I224" s="13" t="s">
+      <c r="I224" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J224" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="13" t="s">
+      <c r="J224" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3688,22 +3801,22 @@
       <c r="E225" s="2">
         <v>10</v>
       </c>
-      <c r="F225" s="13">
+      <c r="F225" s="12">
         <v>1234</v>
       </c>
-      <c r="G225" s="13" t="s">
+      <c r="G225" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H225" s="14">
+      <c r="H225" s="13">
         <v>6.25E-2</v>
       </c>
-      <c r="I225" s="13" t="s">
+      <c r="I225" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J225" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="13" t="s">
+      <c r="J225" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3720,22 +3833,22 @@
       <c r="E226" s="2">
         <v>10</v>
       </c>
-      <c r="F226" s="13">
+      <c r="F226" s="12">
         <v>1234</v>
       </c>
-      <c r="G226" s="13" t="s">
+      <c r="G226" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H226" s="14">
+      <c r="H226" s="13">
         <v>6.25E-2</v>
       </c>
-      <c r="I226" s="13" t="s">
+      <c r="I226" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J226" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="13" t="s">
+      <c r="J226" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3752,22 +3865,22 @@
       <c r="E227" s="2">
         <v>20</v>
       </c>
-      <c r="F227" s="13">
+      <c r="F227" s="12">
         <v>2345</v>
       </c>
-      <c r="G227" s="13" t="s">
+      <c r="G227" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H227" s="14">
+      <c r="H227" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I227" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J227" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="13" t="s">
+      <c r="I227" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J227" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3784,22 +3897,22 @@
       <c r="E228" s="2">
         <v>20</v>
       </c>
-      <c r="F228" s="13">
+      <c r="F228" s="12">
         <v>2345</v>
       </c>
-      <c r="G228" s="13" t="s">
+      <c r="G228" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H228" s="14">
+      <c r="H228" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I228" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J228" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="13" t="s">
+      <c r="I228" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J228" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3816,22 +3929,22 @@
       <c r="E229" s="2">
         <v>20</v>
       </c>
-      <c r="F229" s="13">
+      <c r="F229" s="12">
         <v>2345</v>
       </c>
-      <c r="G229" s="13" t="s">
+      <c r="G229" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H229" s="14">
+      <c r="H229" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I229" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J229" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="13" t="s">
+      <c r="I229" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J229" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3848,22 +3961,22 @@
       <c r="E230" s="2">
         <v>20</v>
       </c>
-      <c r="F230" s="13">
+      <c r="F230" s="12">
         <v>2345</v>
       </c>
-      <c r="G230" s="13" t="s">
+      <c r="G230" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H230" s="14">
+      <c r="H230" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I230" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J230" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="13" t="s">
+      <c r="I230" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J230" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3880,22 +3993,22 @@
       <c r="E231" s="2">
         <v>20</v>
       </c>
-      <c r="F231" s="13">
+      <c r="F231" s="12">
         <v>2345</v>
       </c>
-      <c r="G231" s="13" t="s">
+      <c r="G231" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H231" s="14">
+      <c r="H231" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I231" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J231" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="13" t="s">
+      <c r="I231" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J231" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3912,22 +4025,22 @@
       <c r="E232" s="2">
         <v>20</v>
       </c>
-      <c r="F232" s="13">
+      <c r="F232" s="12">
         <v>2345</v>
       </c>
-      <c r="G232" s="13" t="s">
+      <c r="G232" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H232" s="14">
+      <c r="H232" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I232" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J232" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="13" t="s">
+      <c r="I232" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J232" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3944,22 +4057,22 @@
       <c r="E233" s="2">
         <v>30</v>
       </c>
-      <c r="F233" s="13">
+      <c r="F233" s="12">
         <v>3456</v>
       </c>
-      <c r="G233" s="13" t="s">
+      <c r="G233" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H233" s="14">
+      <c r="H233" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I233" s="13" t="s">
+      <c r="I233" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J233" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="13" t="s">
+      <c r="J233" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3976,22 +4089,22 @@
       <c r="E234" s="2">
         <v>30</v>
       </c>
-      <c r="F234" s="13">
+      <c r="F234" s="12">
         <v>3456</v>
       </c>
-      <c r="G234" s="13" t="s">
+      <c r="G234" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H234" s="14">
+      <c r="H234" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I234" s="13" t="s">
+      <c r="I234" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J234" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="13" t="s">
+      <c r="J234" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4008,22 +4121,22 @@
       <c r="E235" s="2">
         <v>30</v>
       </c>
-      <c r="F235" s="13">
+      <c r="F235" s="12">
         <v>3456</v>
       </c>
-      <c r="G235" s="13" t="s">
+      <c r="G235" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H235" s="14">
+      <c r="H235" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I235" s="13" t="s">
+      <c r="I235" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J235" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="13" t="s">
+      <c r="J235" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4040,22 +4153,22 @@
       <c r="E236" s="2">
         <v>40</v>
       </c>
-      <c r="F236" s="13">
+      <c r="F236" s="12">
         <v>4567</v>
       </c>
-      <c r="G236" s="13" t="s">
+      <c r="G236" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H236" s="14">
+      <c r="H236" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I236" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J236" s="13" t="s">
+      <c r="I236" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J236" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K236" s="13" t="s">
+      <c r="K236" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4072,22 +4185,22 @@
       <c r="E237" s="2">
         <v>40</v>
       </c>
-      <c r="F237" s="13">
+      <c r="F237" s="12">
         <v>4567</v>
       </c>
-      <c r="G237" s="13" t="s">
+      <c r="G237" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H237" s="14">
+      <c r="H237" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I237" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J237" s="13" t="s">
+      <c r="I237" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J237" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K237" s="13" t="s">
+      <c r="K237" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4104,22 +4217,22 @@
       <c r="E238" s="2">
         <v>40</v>
       </c>
-      <c r="F238" s="13">
+      <c r="F238" s="12">
         <v>4567</v>
       </c>
-      <c r="G238" s="13" t="s">
+      <c r="G238" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H238" s="14">
+      <c r="H238" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I238" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J238" s="13" t="s">
+      <c r="I238" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J238" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K238" s="13" t="s">
+      <c r="K238" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4129,16 +4242,16 @@
       </c>
     </row>
     <row r="243" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B243" s="7" t="s">
+      <c r="B243" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C243" s="7" t="s">
+      <c r="C243" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D243" s="7" t="s">
+      <c r="D243" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E243" s="11" t="s">
+      <c r="E243" s="10" t="s">
         <v>80</v>
       </c>
       <c r="F243" s="5" t="s">
@@ -4159,16 +4272,16 @@
       <c r="K243" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L243" s="7" t="s">
+      <c r="L243" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M243" s="7" t="s">
+      <c r="M243" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N243" s="7" t="s">
+      <c r="N243" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O243" s="7" t="s">
+      <c r="O243" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4185,34 +4298,34 @@
       <c r="E244" s="2">
         <v>10</v>
       </c>
-      <c r="F244" s="13">
+      <c r="F244" s="12">
         <v>1234</v>
       </c>
-      <c r="G244" s="13" t="s">
+      <c r="G244" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H244" s="14">
+      <c r="H244" s="13">
         <v>6.25E-2</v>
       </c>
-      <c r="I244" s="13" t="s">
+      <c r="I244" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J244" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="13" t="s">
+      <c r="J244" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L244" s="16" t="s">
+      <c r="L244" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M244" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N244" s="16" t="s">
+      <c r="M244" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N244" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O244" s="16">
+      <c r="O244" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4229,34 +4342,34 @@
       <c r="E245" s="2">
         <v>10</v>
       </c>
-      <c r="F245" s="13">
+      <c r="F245" s="12">
         <v>1234</v>
       </c>
-      <c r="G245" s="13" t="s">
+      <c r="G245" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H245" s="14">
+      <c r="H245" s="13">
         <v>6.25E-2</v>
       </c>
-      <c r="I245" s="13" t="s">
+      <c r="I245" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J245" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="13" t="s">
+      <c r="J245" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L245" s="16" t="s">
+      <c r="L245" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M245" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N245" s="16" t="s">
+      <c r="M245" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N245" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O245" s="16">
+      <c r="O245" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4273,34 +4386,34 @@
       <c r="E246" s="2">
         <v>10</v>
       </c>
-      <c r="F246" s="13">
+      <c r="F246" s="12">
         <v>1234</v>
       </c>
-      <c r="G246" s="13" t="s">
+      <c r="G246" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H246" s="14">
+      <c r="H246" s="13">
         <v>6.25E-2</v>
       </c>
-      <c r="I246" s="13" t="s">
+      <c r="I246" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J246" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="13" t="s">
+      <c r="J246" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L246" s="16" t="s">
+      <c r="L246" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M246" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N246" s="16" t="s">
+      <c r="M246" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N246" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O246" s="16">
+      <c r="O246" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4317,34 +4430,34 @@
       <c r="E247" s="2">
         <v>20</v>
       </c>
-      <c r="F247" s="13">
+      <c r="F247" s="12">
         <v>2345</v>
       </c>
-      <c r="G247" s="13" t="s">
+      <c r="G247" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H247" s="14">
+      <c r="H247" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I247" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J247" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="13" t="s">
+      <c r="I247" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J247" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L247" s="16" t="s">
+      <c r="L247" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="M247" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N247" s="16" t="s">
+      <c r="M247" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N247" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O247" s="16">
+      <c r="O247" s="15">
         <v>12</v>
       </c>
     </row>
@@ -4361,34 +4474,34 @@
       <c r="E248" s="2">
         <v>20</v>
       </c>
-      <c r="F248" s="13">
+      <c r="F248" s="12">
         <v>2345</v>
       </c>
-      <c r="G248" s="13" t="s">
+      <c r="G248" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H248" s="14">
+      <c r="H248" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I248" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J248" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="13" t="s">
+      <c r="I248" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J248" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L248" s="16" t="s">
+      <c r="L248" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="M248" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N248" s="16" t="s">
+      <c r="M248" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N248" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O248" s="16">
+      <c r="O248" s="15">
         <v>12</v>
       </c>
     </row>
@@ -4405,34 +4518,34 @@
       <c r="E249" s="2">
         <v>20</v>
       </c>
-      <c r="F249" s="13">
+      <c r="F249" s="12">
         <v>2345</v>
       </c>
-      <c r="G249" s="13" t="s">
+      <c r="G249" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H249" s="14">
+      <c r="H249" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I249" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J249" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="13" t="s">
+      <c r="I249" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J249" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L249" s="16" t="s">
+      <c r="L249" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="M249" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N249" s="16" t="s">
+      <c r="M249" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N249" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O249" s="16">
+      <c r="O249" s="15">
         <v>12</v>
       </c>
     </row>
@@ -4449,34 +4562,34 @@
       <c r="E250" s="2">
         <v>20</v>
       </c>
-      <c r="F250" s="13">
+      <c r="F250" s="12">
         <v>2345</v>
       </c>
-      <c r="G250" s="13" t="s">
+      <c r="G250" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H250" s="14">
+      <c r="H250" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I250" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J250" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="13" t="s">
+      <c r="I250" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J250" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L250" s="16" t="s">
+      <c r="L250" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="M250" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N250" s="16" t="s">
+      <c r="M250" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N250" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O250" s="16">
+      <c r="O250" s="15">
         <v>12</v>
       </c>
     </row>
@@ -4493,34 +4606,34 @@
       <c r="E251" s="2">
         <v>20</v>
       </c>
-      <c r="F251" s="13">
+      <c r="F251" s="12">
         <v>2345</v>
       </c>
-      <c r="G251" s="13" t="s">
+      <c r="G251" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H251" s="14">
+      <c r="H251" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I251" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J251" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="13" t="s">
+      <c r="I251" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J251" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L251" s="16" t="s">
+      <c r="L251" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="M251" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N251" s="16" t="s">
+      <c r="M251" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N251" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O251" s="16">
+      <c r="O251" s="15">
         <v>12</v>
       </c>
     </row>
@@ -4537,34 +4650,34 @@
       <c r="E252" s="2">
         <v>20</v>
       </c>
-      <c r="F252" s="13">
+      <c r="F252" s="12">
         <v>2345</v>
       </c>
-      <c r="G252" s="13" t="s">
+      <c r="G252" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H252" s="14">
+      <c r="H252" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I252" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J252" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="13" t="s">
+      <c r="I252" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J252" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L252" s="16" t="s">
+      <c r="L252" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="M252" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N252" s="16" t="s">
+      <c r="M252" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N252" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O252" s="16">
+      <c r="O252" s="15">
         <v>12</v>
       </c>
     </row>
@@ -4581,34 +4694,34 @@
       <c r="E253" s="2">
         <v>30</v>
       </c>
-      <c r="F253" s="13">
+      <c r="F253" s="12">
         <v>3456</v>
       </c>
-      <c r="G253" s="13" t="s">
+      <c r="G253" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H253" s="14">
+      <c r="H253" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I253" s="13" t="s">
+      <c r="I253" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J253" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="13" t="s">
+      <c r="J253" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L253" s="16" t="s">
+      <c r="L253" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="M253" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N253" s="16" t="s">
+      <c r="M253" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N253" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O253" s="16">
+      <c r="O253" s="15">
         <v>13</v>
       </c>
     </row>
@@ -4625,34 +4738,34 @@
       <c r="E254" s="2">
         <v>30</v>
       </c>
-      <c r="F254" s="13">
+      <c r="F254" s="12">
         <v>3456</v>
       </c>
-      <c r="G254" s="13" t="s">
+      <c r="G254" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H254" s="14">
+      <c r="H254" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I254" s="13" t="s">
+      <c r="I254" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J254" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="13" t="s">
+      <c r="J254" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L254" s="16" t="s">
+      <c r="L254" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="M254" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N254" s="16" t="s">
+      <c r="M254" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N254" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O254" s="16">
+      <c r="O254" s="15">
         <v>13</v>
       </c>
     </row>
@@ -4669,34 +4782,34 @@
       <c r="E255" s="2">
         <v>30</v>
       </c>
-      <c r="F255" s="13">
+      <c r="F255" s="12">
         <v>3456</v>
       </c>
-      <c r="G255" s="13" t="s">
+      <c r="G255" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H255" s="14">
+      <c r="H255" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I255" s="13" t="s">
+      <c r="I255" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J255" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="13" t="s">
+      <c r="J255" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L255" s="16" t="s">
+      <c r="L255" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="M255" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N255" s="16" t="s">
+      <c r="M255" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N255" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O255" s="16">
+      <c r="O255" s="15">
         <v>13</v>
       </c>
     </row>
@@ -4713,38 +4826,38 @@
       <c r="E256" s="2">
         <v>40</v>
       </c>
-      <c r="F256" s="13">
+      <c r="F256" s="12">
         <v>4567</v>
       </c>
-      <c r="G256" s="13" t="s">
+      <c r="G256" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H256" s="14">
+      <c r="H256" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I256" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J256" s="13" t="s">
+      <c r="I256" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J256" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K256" s="13" t="s">
+      <c r="K256" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L256" s="16" t="s">
+      <c r="L256" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M256" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N256" s="16" t="s">
+      <c r="M256" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N256" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O256" s="16">
+      <c r="O256" s="15">
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B257" s="2">
         <v>4</v>
       </c>
@@ -4757,38 +4870,38 @@
       <c r="E257" s="2">
         <v>40</v>
       </c>
-      <c r="F257" s="13">
+      <c r="F257" s="12">
         <v>4567</v>
       </c>
-      <c r="G257" s="13" t="s">
+      <c r="G257" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H257" s="14">
+      <c r="H257" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I257" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J257" s="13" t="s">
+      <c r="I257" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J257" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K257" s="13" t="s">
+      <c r="K257" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L257" s="16" t="s">
+      <c r="L257" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M257" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N257" s="16" t="s">
+      <c r="M257" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N257" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O257" s="16">
+      <c r="O257" s="15">
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B258" s="2">
         <v>4</v>
       </c>
@@ -4801,35 +4914,637 @@
       <c r="E258" s="2">
         <v>40</v>
       </c>
-      <c r="F258" s="13">
+      <c r="F258" s="12">
         <v>4567</v>
       </c>
-      <c r="G258" s="13" t="s">
+      <c r="G258" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H258" s="14">
+      <c r="H258" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="I258" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J258" s="13" t="s">
+      <c r="I258" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J258" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K258" s="13" t="s">
+      <c r="K258" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L258" s="16" t="s">
+      <c r="L258" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M258" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N258" s="16" t="s">
+      <c r="M258" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N258" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O258" s="16">
+      <c r="O258" s="15">
         <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A265" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B268" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B269" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F269" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B270" s="2">
+        <v>1234</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B271" s="2">
+        <v>2345</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" s="3">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B272" s="2">
+        <v>3456</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D272" s="3">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B273" s="2">
+        <v>4567</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D273" s="3">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B276" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B277" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E277" s="6"/>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B278" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E278" s="2"/>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B279" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E279" s="2"/>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B280" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E280" s="2"/>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B281" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E281" s="2"/>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B284" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B285" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F285" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B286" s="2">
+        <v>1</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D286" s="4">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="E286" s="12">
+        <v>1234</v>
+      </c>
+      <c r="F286" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B287" s="2">
+        <v>1</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D287" s="4">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="E287" s="12">
+        <v>1234</v>
+      </c>
+      <c r="F287" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B288" s="2">
+        <v>1</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D288" s="4">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="E288" s="12">
+        <v>1234</v>
+      </c>
+      <c r="F288" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B289" s="2">
+        <v>2</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E289" s="12">
+        <v>2345</v>
+      </c>
+      <c r="F289" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B290" s="2">
+        <v>2</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E290" s="12">
+        <v>2345</v>
+      </c>
+      <c r="F290" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B291" s="2">
+        <v>2</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E291" s="12">
+        <v>2345</v>
+      </c>
+      <c r="F291" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B292" s="2">
+        <v>2</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E292" s="12">
+        <v>2345</v>
+      </c>
+      <c r="F292" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B293" s="2">
+        <v>2</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E293" s="12">
+        <v>2345</v>
+      </c>
+      <c r="F293" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B294" s="2">
+        <v>2</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E294" s="12">
+        <v>2345</v>
+      </c>
+      <c r="F294" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B295" s="2">
+        <v>3</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E295" s="12">
+        <v>3456</v>
+      </c>
+      <c r="F295" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B296" s="2">
+        <v>3</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E296" s="12">
+        <v>3456</v>
+      </c>
+      <c r="F296" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B297" s="2">
+        <v>3</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E297" s="12">
+        <v>3456</v>
+      </c>
+      <c r="F297" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B298" s="2">
+        <v>4</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E298" s="12">
+        <v>4567</v>
+      </c>
+      <c r="F298" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B299" s="2">
+        <v>4</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E299" s="12">
+        <v>4567</v>
+      </c>
+      <c r="F299" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B300" s="2">
+        <v>4</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E300" s="12">
+        <v>4567</v>
+      </c>
+      <c r="F300" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B303" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B304" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B305" s="2">
+        <v>11</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D305" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B306" s="2">
+        <v>12</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D306" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B307" s="2">
+        <v>13</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D307" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B308" s="2">
+        <v>14</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D308" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B311" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="313" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B313" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C313" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D313" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E313" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B314" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D314" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E314" s="19">
+        <v>0.51111111111111118</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B315" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B316" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B317" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B318" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
